--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Documents\3. Semester\Computersystemer\Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Documents\3. Semester\Computersystemer\DeltMappe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="374" documentId="12D19415CBA39DC964C25A1DDBFF4D20A1124B83" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{C1266D54-0C9B-4314-8F18-8856BDABD5D1}"/>
+  <xr:revisionPtr revIDLastSave="395" documentId="12D19415CBA39DC964C25A1DDBFF4D20A1124B83" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{FD28A207-87AE-40E2-B388-923BDC0925BD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{21F80CAF-7769-4BCC-971F-51925B34A13F}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Opcode</t>
-  </si>
-  <si>
-    <t>Reg</t>
   </si>
   <si>
     <t>Add</t>
@@ -562,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD984BBF-31D6-48ED-BE17-A948CA1C2330}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,16 +576,16 @@
     </row>
     <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -619,16 +616,16 @@
     </row>
     <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="AE4"/>
       <c r="AF4"/>
@@ -665,13 +662,16 @@
     </row>
     <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="AE6"/>
       <c r="AF6"/>
@@ -696,30 +696,36 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="10"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="10"/>
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7"/>
     </row>
     <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="AE8"/>
       <c r="AF8"/>
@@ -744,32 +750,38 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
       <c r="AE9"/>
       <c r="AF9"/>
       <c r="AG9"/>
     </row>
     <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="AE10"/>
       <c r="AF10"/>
@@ -794,30 +806,33 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="10"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
       <c r="AE11"/>
       <c r="AF11"/>
       <c r="AG11"/>
     </row>
     <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -843,17 +858,23 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -879,14 +900,20 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -924,10 +951,10 @@
     </row>
     <row r="18" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG18"/>
     </row>
@@ -967,10 +994,10 @@
     </row>
     <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG20"/>
     </row>
@@ -1108,10 +1135,10 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <v>30</v>
@@ -1120,10 +1147,10 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1132,52 +1159,52 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1185,21 +1212,21 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1">
         <v>22</v>
@@ -1207,24 +1234,24 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Documents\3. Semester\Computersystemer\DeltMappe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="12D19415CBA39DC964C25A1DDBFF4D20A1124B83" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{FD28A207-87AE-40E2-B388-923BDC0925BD}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="12D19415CBA39DC964C25A1DDBFF4D20A1124B83" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{09D26666-F05F-49D3-9DB4-3E6A0C2C3302}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{21F80CAF-7769-4BCC-971F-51925B34A13F}"/>
   </bookViews>
@@ -60,15 +60,9 @@
     <t>Dest Reg</t>
   </si>
   <si>
-    <t>Src Memory</t>
-  </si>
-  <si>
     <t>Src Reg</t>
   </si>
   <si>
-    <t>Dest Memory</t>
-  </si>
-  <si>
     <t>Numeric value</t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>JumpNeg</t>
+  </si>
+  <si>
+    <t>Src reg 2</t>
+  </si>
+  <si>
+    <t>Addr</t>
   </si>
 </sst>
 </file>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD984BBF-31D6-48ED-BE17-A948CA1C2330}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,7 +616,7 @@
     </row>
     <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -668,10 +668,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="AE6"/>
       <c r="AF6"/>
@@ -716,16 +716,16 @@
     </row>
     <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="AE8"/>
       <c r="AF8"/>
@@ -770,7 +770,7 @@
     </row>
     <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -778,10 +778,10 @@
         <v>9</v>
       </c>
       <c r="I10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="AE10"/>
       <c r="AF10"/>
@@ -831,9 +831,20 @@
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="I12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
     </row>
     <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
@@ -854,28 +865,39 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="7"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
     </row>
     <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="I14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
     </row>
     <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
@@ -898,22 +920,22 @@
       <c r="K15" s="6"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
     </row>
     <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -951,10 +973,10 @@
     </row>
     <row r="18" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG18"/>
     </row>
@@ -994,10 +1016,10 @@
     </row>
     <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG20"/>
     </row>
@@ -1138,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>30</v>
@@ -1147,10 +1169,10 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1159,41 +1181,41 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.35">
@@ -1201,10 +1223,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1215,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.35">
@@ -1234,13 +1256,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1248,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>4</v>

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Documents\3. Semester\Computersystemer\DeltMappe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Documents\DTU\Computersystemer\Image\Delt Mappe\Computersystemer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="402" documentId="12D19415CBA39DC964C25A1DDBFF4D20A1124B83" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{09D26666-F05F-49D3-9DB4-3E6A0C2C3302}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{21F80CAF-7769-4BCC-971F-51925B34A13F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" xr2:uid="{21F80CAF-7769-4BCC-971F-51925B34A13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -559,22 +559,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD984BBF-31D6-48ED-BE17-A948CA1C2330}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="10.90625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="25" width="10.85546875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -588,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -631,7 +631,7 @@
       <c r="AF4"/>
       <c r="AG4"/>
     </row>
-    <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="AF5"/>
       <c r="AG5"/>
     </row>
-    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="AF6"/>
       <c r="AG6"/>
     </row>
-    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="AF7"/>
       <c r="AG7"/>
     </row>
-    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>27</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="AF8"/>
       <c r="AG8"/>
     </row>
-    <row r="9" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="AF9"/>
       <c r="AG9"/>
     </row>
-    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
@@ -787,7 +787,7 @@
       <c r="AF10"/>
       <c r="AG10"/>
     </row>
-    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="AF11"/>
       <c r="AG11"/>
     </row>
-    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -846,7 +846,7 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,7 +938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>28</v>
       </c>
@@ -980,7 +980,7 @@
       </c>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="U19" s="13"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="U21" s="13"/>
       <c r="AG21"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>31</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>22</v>
       </c>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>16</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>18</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>2</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>1</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>6</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>19</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>3</v>
       </c>
